--- a/biology/Médecine/Docteur_Doogie/Docteur_Doogie.xlsx
+++ b/biology/Médecine/Docteur_Doogie/Docteur_Doogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur Doogie (Doogie Howser, M.D.) est une série télévisée américaine en 97 épisodes de 21 minutes, créée par Steven Bochco et David E. Kelley, produite par la 20th Century Fox Television et diffusée entre le 19 septembre 1989 et le 24 mars 1993 sur le réseau ABC.
 Au Québec, la série a été diffusée à partir du 2 septembre 1990 sur le réseau TVA, et en France à partir de novembre 1990 dans l'émission Allô Bibizz ! sur FR3.
-Un reboot, Docteure Doogie, est diffusé sur Disney+ depuis le 8 septembre 2021[1].
+Un reboot, Docteure Doogie, est diffusé sur Disney+ depuis le 8 septembre 2021.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série met en scène Douglas « Doogie » Howser, un adolescent surdoué, diplômé de médecine à l'âge de 14 ans, qui exerce à l’Eastman Medical Center de Los Angeles. Maintenant âgé de 16 ans, il est à la fois confronté aux responsabilités de sa profession et aux problèmes liés à sa propre adolescence.
 </t>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Neil Patrick Harris (VF : Mathias Kozlowski) : Dr Douglas « Doogie » Howser
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neil Patrick Harris (VF : Mathias Kozlowski) : Dr Douglas « Doogie » Howser
 James Sikking (VF : Michel Derain) : Dr David Howser
 Belinda Montgomery (VF : Marie-Martine Bisson) : Katherine Howser
 Max Casella (VF : Hervé Rey) : Vinnie Delpino
@@ -556,13 +575,7 @@
 Kathryn Layng (en) (VF : Dominique Westberg) : Curly Spaulding
 Lisa Dean Ryan (en) : Wanda Plenn (saisons 1 et 2, récurrente saison 3)
 Lucy Boryer (en) : Janine Stewart (saisons 1 à 3, invitée saison 4)
-Markus Redmond (en) : Raymond Alexander (saisons 2 à 4, invité saison 1)
-Acteurs récurrents et invités
-Perrey Reeves : Cecilia Carelli (saison 3, épisodes 11 et 17)
-Version française
-Société de doublage : PM Productions[2]
-Direction artistique : Michel Derain[2]
-Source VF : Doublage Séries Database[2]</t>
+Markus Redmond (en) : Raymond Alexander (saisons 2 à 4, invité saison 1)</t>
         </is>
       </c>
     </row>
@@ -587,12 +600,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Perrey Reeves : Cecilia Carelli (saison 3, épisodes 11 et 17)
+Version française
+Société de doublage : PM Productions
+Direction artistique : Michel Derain
+Source VF : Doublage Séries Database</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (1989-1990)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Première saison (1989-1990)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pilot
 The Ice Queen Cometh
 A Stitch Called Wanda
@@ -619,7 +678,43 @@
 Breaking Up Is Hard to Doogie
 The Grass Ain't Always Greener
 Frankly, My Dear, I Don't Give a Grand
-Deuxième saison (1990-1991)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1990-1991)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Doogenstein
 Guess Who's Coming to Doogie's
 Ask Doctor Doogie
@@ -645,7 +740,43 @@
 Doogie's Wager
 A Kiss Ain't Just a Kiss
 Dances with Wanda
-Troisième saison (1991-1992)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Troisième saison (1991-1992)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Summer of '91
 Doogie Has Left the Building (Part 1)
 Doogie Has Left the Building (Part 2)
@@ -670,7 +801,43 @@
 That's What Friends Are For
 Thank's for the Memories
 Club Medicine
-Quatrième saison (1992-1993)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Doogie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Quatrième saison (1992-1993)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 There's a Riot Going On
 Look Ma, No Pants
 Doogie Got a Gun
@@ -697,33 +864,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Docteur_Doogie</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Docteur_Doogie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série a été stoppée après quatre saisons par ABC. Steven Bochco a annoncé plus tard comment il aurait voulu clore l’histoire de son personnage. L’ultime saison de la série aurait montré le jeune médecin désillusionné par son métier, pour finir auteur[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série a été stoppée après quatre saisons par ABC. Steven Bochco a annoncé plus tard comment il aurait voulu clore l’histoire de son personnage. L’ultime saison de la série aurait montré le jeune médecin désillusionné par son métier, pour finir auteur.
 </t>
         </is>
       </c>
